--- a/Lib/Components.xlsx
+++ b/Lib/Components.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faisal\Desktop\fh_universalslave_pcb\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faisal\Desktop\fh_universalslave_pcb\Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A618B5-61A4-45A1-B735-5AD52F600837}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EB7C3A-8E7C-4D78-88D8-166333D910E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>4-20mA CURRENT LOOP TRANSMITTERS</t>
   </si>
   <si>
-    <t>https://www.mouser.com/datasheet/2/256/MAX17690EVKITA-972408.pdf</t>
+    <t>https://www.maximintegrated.com/en/design/reference-design-center/ref-circuits/6580.html</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
